--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\vscode-projects\nterone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86B3039-D908-4832-80CC-13E01EDB8F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B911D-A11A-463B-9353-6574AA4472C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7387,7 +7387,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>41910</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7706,7 +7706,7 @@
   <dimension ref="A1:H2451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection sqref="A1:H81"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
